--- a/AtividadeComArquivos.xlsx
+++ b/AtividadeComArquivos.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,42 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>Bruno</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Geovana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gustavo</t>
         </is>
       </c>
     </row>
